--- a/spec/files/discrete_dynamic_columns.xlsx
+++ b/spec/files/discrete_dynamic_columns.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24480" windowHeight="14940" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$5</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -5303,17 +5303,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -5337,17 +5337,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="20"/>
       <c r="B1" s="25"/>
       <c r="C1" s="20"/>
@@ -5356,7 +5356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>440</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>441</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>471</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>489</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="56">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>491</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>454</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>455</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>473</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1">
+    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -5469,7 +5469,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>482</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>483</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>484</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>486</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>29</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>466</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>465</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>568</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>572</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>569</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>571</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
@@ -5634,7 +5634,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>32</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="28">
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
@@ -5725,32 +5725,32 @@
       <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" style="1"/>
-    <col min="19" max="19" width="46.1640625" style="1" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="1"/>
-    <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="1"/>
+    <col min="3" max="3" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="1"/>
+    <col min="19" max="19" width="46.140625" style="1" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5785,7 +5785,7 @@
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +5798,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:25" s="15" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="15" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="N5" s="3"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:25" customFormat="1" ht="15">
+    <row r="6" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="b">
         <v>1</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:25" customFormat="1" ht="15">
+    <row r="7" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
         <v>24</v>
@@ -5970,7 +5970,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:25" customFormat="1" ht="15">
+    <row r="8" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
         <v>24</v>
@@ -6007,7 +6007,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" customFormat="1" ht="15">
+    <row r="9" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>23</v>
@@ -6055,18 +6055,18 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -6077,7 +6077,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="15">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>475</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="15">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -6109,7 +6109,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>563</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>565</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>574</v>
       </c>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>575</v>
       </c>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>576</v>
       </c>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>577</v>
       </c>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>578</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>579</v>
       </c>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>580</v>
       </c>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>581</v>
       </c>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>582</v>
       </c>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" customFormat="1">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>583</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customFormat="1">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1">
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>585</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>586</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1">
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>587</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1">
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>588</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>589</v>
       </c>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>590</v>
       </c>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>591</v>
       </c>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>592</v>
       </c>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>593</v>
       </c>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>594</v>
       </c>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>595</v>
       </c>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>596</v>
       </c>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>597</v>
       </c>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6697,19 +6697,19 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="b">
         <v>0</v>
       </c>
@@ -6728,7 +6728,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>23</v>
@@ -6749,7 +6749,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>23</v>
@@ -6795,7 +6795,7 @@
       </c>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
         <v>23</v>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="18" t="s">
         <v>23</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
         <v>23</v>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>23</v>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>23</v>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="b">
         <v>0</v>
       </c>
@@ -6952,7 +6952,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
         <v>23</v>
@@ -6973,7 +6973,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18" t="s">
         <v>23</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
         <v>23</v>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
         <v>23</v>
@@ -7088,7 +7088,7 @@
       </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18" t="s">
         <v>23</v>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18" t="s">
         <v>23</v>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
         <v>23</v>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="b">
         <v>0</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18" t="s">
         <v>23</v>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>23</v>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18" t="s">
         <v>23</v>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="18" t="s">
         <v>23</v>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="18" t="s">
         <v>23</v>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18" t="s">
         <v>23</v>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18" t="s">
         <v>23</v>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="18" t="s">
         <v>23</v>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18" t="s">
         <v>23</v>
@@ -7383,7 +7383,7 @@
       </c>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="b">
         <v>0</v>
       </c>
@@ -7402,7 +7402,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="18" t="s">
         <v>23</v>
@@ -7423,7 +7423,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="18" t="s">
         <v>23</v>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>23</v>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18" t="s">
         <v>23</v>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18" t="s">
         <v>23</v>
@@ -7515,7 +7515,7 @@
       </c>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="18" t="s">
         <v>23</v>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="18" t="s">
         <v>23</v>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18" t="s">
         <v>23</v>
@@ -7584,7 +7584,7 @@
       </c>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="18" t="s">
         <v>23</v>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="b">
         <v>0</v>
       </c>
@@ -7626,7 +7626,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="18" t="s">
         <v>23</v>
@@ -7647,7 +7647,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="18" t="s">
         <v>23</v>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>23</v>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="18" t="s">
         <v>23</v>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="18" t="s">
         <v>23</v>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="18" t="s">
         <v>23</v>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="18" t="s">
         <v>23</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="18" t="s">
         <v>23</v>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="18" t="s">
         <v>23</v>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="b">
         <v>0</v>
       </c>
@@ -7850,7 +7850,7 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="18" t="s">
         <v>23</v>
@@ -7871,7 +7871,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="18" t="s">
         <v>23</v>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="18" t="s">
         <v>23</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="18" t="s">
         <v>23</v>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="18" t="s">
         <v>23</v>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="18"/>
       <c r="B57" s="18" t="s">
         <v>23</v>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="18"/>
       <c r="B58" s="18" t="s">
         <v>23</v>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="18" t="s">
         <v>23</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="18" t="s">
         <v>23</v>
@@ -8055,7 +8055,7 @@
       </c>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="18" t="b">
         <v>0</v>
       </c>
@@ -8074,7 +8074,7 @@
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="18" t="s">
         <v>23</v>
@@ -8095,7 +8095,7 @@
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="18" t="s">
         <v>23</v>
@@ -8120,7 +8120,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="18"/>
       <c r="B64" s="18" t="s">
         <v>23</v>
@@ -8143,7 +8143,7 @@
       </c>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="18"/>
       <c r="B65" s="18" t="s">
         <v>23</v>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="I65" s="18"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="18"/>
       <c r="B66" s="18" t="s">
         <v>23</v>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="I66" s="18"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="18" t="s">
         <v>23</v>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="18" t="s">
         <v>23</v>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
         <v>23</v>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
         <v>23</v>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="18"/>
       <c r="B71" s="18" t="s">
         <v>23</v>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="b">
         <v>0</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="18"/>
       <c r="B73" s="18" t="s">
         <v>23</v>
@@ -8344,7 +8344,7 @@
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="18" t="s">
         <v>23</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="18" t="s">
         <v>23</v>
@@ -8392,7 +8392,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="18" t="s">
         <v>23</v>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="18" t="s">
         <v>23</v>
@@ -8438,7 +8438,7 @@
       </c>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="18" t="s">
         <v>23</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="18" t="s">
         <v>23</v>
@@ -8484,7 +8484,7 @@
       </c>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="18" t="s">
         <v>23</v>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="18" t="s">
         <v>23</v>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="18" t="s">
         <v>23</v>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="I82" s="18"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="18"/>
       <c r="B83" s="18" t="s">
         <v>23</v>
@@ -8576,7 +8576,7 @@
       </c>
       <c r="I83" s="18"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="18" t="s">
         <v>23</v>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="I84" s="18"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="18" t="s">
         <v>23</v>
@@ -8622,7 +8622,7 @@
       </c>
       <c r="I85" s="18"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="b">
         <v>0</v>
       </c>
@@ -8641,7 +8641,7 @@
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="18"/>
       <c r="B87" s="18" t="s">
         <v>23</v>
@@ -8664,7 +8664,7 @@
       </c>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="18" t="s">
         <v>23</v>
@@ -8687,7 +8687,7 @@
       </c>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="18"/>
       <c r="B89" s="18" t="s">
         <v>23</v>
@@ -8710,7 +8710,7 @@
       </c>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="18"/>
       <c r="B90" s="18" t="s">
         <v>23</v>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="I90" s="18"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="18" t="s">
         <v>23</v>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="I91" s="18"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="18"/>
       <c r="B92" s="18" t="s">
         <v>23</v>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="18" t="s">
         <v>23</v>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="18"/>
       <c r="B94" s="18" t="s">
         <v>23</v>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="18"/>
       <c r="B95" s="18" t="s">
         <v>23</v>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="I95" s="18"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="18" t="s">
         <v>23</v>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="I96" s="18"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="b">
         <v>0</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="18"/>
       <c r="B98" s="18" t="s">
         <v>23</v>
@@ -8915,7 +8915,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="b">
         <v>0</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="18" t="s">
         <v>23</v>
@@ -8955,7 +8955,7 @@
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="18" t="s">
         <v>23</v>
@@ -8980,7 +8980,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="b">
         <v>0</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="18" t="s">
         <v>23</v>
@@ -9022,7 +9022,7 @@
       </c>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="18" t="s">
         <v>23</v>
@@ -9047,7 +9047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="18" t="s">
         <v>23</v>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="18"/>
       <c r="B106" s="18" t="s">
         <v>23</v>
@@ -9091,7 +9091,7 @@
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="b">
         <v>0</v>
       </c>
@@ -9110,7 +9110,7 @@
       <c r="H107" s="18"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="18"/>
       <c r="B108" s="18" t="s">
         <v>23</v>
@@ -9135,7 +9135,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="18" t="s">
         <v>23</v>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="18" t="s">
         <v>23</v>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="18" t="s">
         <v>23</v>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="18"/>
       <c r="B112" s="18" t="s">
         <v>23</v>
@@ -9227,7 +9227,7 @@
       </c>
       <c r="I112" s="18"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="18"/>
       <c r="B113" s="18" t="s">
         <v>23</v>
@@ -9250,7 +9250,7 @@
       </c>
       <c r="I113" s="18"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="18" t="s">
         <v>23</v>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="I114" s="18"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="b">
         <v>0</v>
       </c>
@@ -9292,7 +9292,7 @@
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="18" t="s">
         <v>23</v>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="18" t="s">
         <v>23</v>
@@ -9338,7 +9338,7 @@
       </c>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="18" t="s">
         <v>23</v>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="b">
         <v>0</v>
       </c>
@@ -9380,7 +9380,7 @@
       <c r="H119" s="18"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="18"/>
       <c r="B120" s="18" t="s">
         <v>23</v>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="18"/>
       <c r="B121" s="18" t="s">
         <v>23</v>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="18"/>
       <c r="B122" s="18" t="s">
         <v>23</v>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="I122" s="18"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
       <c r="B123" s="18" t="s">
         <v>23</v>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="I123" s="18"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="18"/>
       <c r="B124" s="18" t="s">
         <v>23</v>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="I124" s="18"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="18" t="s">
         <v>23</v>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="I125" s="18"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="18" t="b">
         <v>0</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="H126" s="18"/>
       <c r="I126" s="18"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="18"/>
       <c r="B127" s="18" t="s">
         <v>23</v>
@@ -9562,7 +9562,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="18"/>
       <c r="B128" s="18" t="s">
         <v>23</v>
@@ -9585,7 +9585,7 @@
       </c>
       <c r="I128" s="18"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="18"/>
       <c r="B129" s="18" t="s">
         <v>23</v>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="I129" s="18"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="18" t="s">
         <v>23</v>
@@ -9631,7 +9631,7 @@
       </c>
       <c r="I130" s="18"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="18"/>
       <c r="B131" s="18" t="s">
         <v>23</v>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="I131" s="18"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="18"/>
       <c r="B132" s="18" t="s">
         <v>23</v>
@@ -9677,7 +9677,7 @@
       </c>
       <c r="I132" s="18"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="18"/>
       <c r="B133" s="18" t="s">
         <v>23</v>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="I133" s="18"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="18"/>
       <c r="B134" s="18" t="s">
         <v>23</v>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="I134" s="18"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="18"/>
       <c r="B135" s="18" t="s">
         <v>23</v>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="I135" s="18"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="b">
         <v>0</v>
       </c>
@@ -9765,7 +9765,7 @@
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="18"/>
       <c r="B137" s="18" t="s">
         <v>23</v>
@@ -9790,7 +9790,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="18"/>
       <c r="B138" s="18" t="s">
         <v>23</v>
@@ -9811,7 +9811,7 @@
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="18"/>
       <c r="B139" s="18" t="s">
         <v>23</v>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="I139" s="18"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="18"/>
       <c r="B140" s="18" t="s">
         <v>23</v>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I140" s="18"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="18"/>
       <c r="B141" s="18" t="s">
         <v>23</v>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="18"/>
       <c r="B142" s="18" t="s">
         <v>23</v>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="I142" s="18"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
       <c r="B143" s="18" t="s">
         <v>23</v>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="I143" s="18"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
       <c r="B144" s="18" t="s">
         <v>23</v>
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I144" s="18"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
       <c r="B145" s="18" t="s">
         <v>23</v>
@@ -9972,7 +9972,7 @@
       </c>
       <c r="I145" s="18"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="18"/>
       <c r="B146" s="18" t="s">
         <v>23</v>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="I146" s="18"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="18"/>
       <c r="B147" s="18" t="s">
         <v>23</v>
@@ -10018,7 +10018,7 @@
       </c>
       <c r="I147" s="18"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="18"/>
       <c r="B148" s="18" t="s">
         <v>23</v>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="I148" s="18"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="18"/>
       <c r="B149" s="18" t="s">
         <v>23</v>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="I149" s="18"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="18"/>
       <c r="B150" s="18" t="s">
         <v>23</v>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="I150" s="18"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="b">
         <v>0</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="18"/>
       <c r="B152" s="18" t="s">
         <v>23</v>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="I152" s="18"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="b">
         <v>0</v>
       </c>
@@ -10148,7 +10148,7 @@
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="18"/>
       <c r="B154" s="18" t="s">
         <v>23</v>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="I154" s="18"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="18"/>
       <c r="B155" s="18" t="s">
         <v>23</v>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="I155" s="18"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="b">
         <v>0</v>
       </c>
@@ -10213,7 +10213,7 @@
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="18"/>
       <c r="B157" s="18" t="s">
         <v>23</v>
@@ -10238,7 +10238,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="18"/>
       <c r="B158" s="18" t="s">
         <v>23</v>
@@ -10261,7 +10261,7 @@
       </c>
       <c r="I158" s="18"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="18"/>
       <c r="B159" s="18" t="s">
         <v>23</v>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="I159" s="18"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="18"/>
       <c r="B160" s="18" t="s">
         <v>23</v>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="I160" s="18"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
       <c r="B161" s="18" t="s">
         <v>23</v>
@@ -10330,7 +10330,7 @@
       </c>
       <c r="I161" s="18"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="18"/>
       <c r="B162" s="18" t="s">
         <v>23</v>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="I162" s="18"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="18"/>
       <c r="B163" s="18" t="s">
         <v>23</v>
@@ -10376,7 +10376,7 @@
       </c>
       <c r="I163" s="18"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="18" t="s">
         <v>23</v>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="I164" s="18"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="18"/>
       <c r="B165" s="18" t="s">
         <v>23</v>
@@ -10422,7 +10422,7 @@
       </c>
       <c r="I165" s="18"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="18" t="s">
         <v>23</v>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="I166" s="18"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="b">
         <v>0</v>
       </c>
@@ -10464,7 +10464,7 @@
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="18" t="s">
         <v>23</v>
@@ -10489,7 +10489,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="18"/>
       <c r="B169" s="18" t="s">
         <v>23</v>
@@ -10512,7 +10512,7 @@
       </c>
       <c r="I169" s="18"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="18"/>
       <c r="B170" s="18" t="s">
         <v>23</v>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="I170" s="18"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="18"/>
       <c r="B171" s="18" t="s">
         <v>23</v>
@@ -10558,7 +10558,7 @@
       </c>
       <c r="I171" s="18"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="18"/>
       <c r="B172" s="18" t="s">
         <v>23</v>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="I172" s="18"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="18"/>
       <c r="B173" s="18" t="s">
         <v>23</v>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="I173" s="18"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="18"/>
       <c r="B174" s="18" t="s">
         <v>23</v>
@@ -10627,7 +10627,7 @@
       </c>
       <c r="I174" s="18"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="18"/>
       <c r="B175" s="18" t="s">
         <v>23</v>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="I175" s="18"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="18"/>
       <c r="B176" s="18" t="s">
         <v>23</v>
@@ -10673,7 +10673,7 @@
       </c>
       <c r="I176" s="18"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="18"/>
       <c r="B177" s="18" t="s">
         <v>23</v>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="I177" s="18"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="b">
         <v>0</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="18"/>
       <c r="B179" s="18" t="s">
         <v>23</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="I179" s="18"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="18"/>
       <c r="B180" s="18" t="s">
         <v>23</v>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="I180" s="18"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="18"/>
       <c r="B181" s="18" t="s">
         <v>23</v>
@@ -10784,7 +10784,7 @@
       </c>
       <c r="I181" s="18"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
       <c r="B182" s="18" t="s">
         <v>23</v>
@@ -10807,7 +10807,7 @@
       </c>
       <c r="I182" s="18"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="b">
         <v>0</v>
       </c>
@@ -10826,7 +10826,7 @@
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="18"/>
       <c r="B184" s="18" t="s">
         <v>23</v>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="I184" s="18"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="18" t="s">
         <v>23</v>
@@ -10872,7 +10872,7 @@
       </c>
       <c r="I185" s="18"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="18"/>
       <c r="B186" s="18" t="s">
         <v>23</v>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="I186" s="18"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="18" t="s">
         <v>23</v>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="I187" s="18"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="b">
         <v>0</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="18"/>
       <c r="B189" s="18" t="s">
         <v>23</v>
@@ -10958,7 +10958,7 @@
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="18" t="s">
         <v>23</v>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="I190" s="18"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="b">
         <v>0</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="H191" s="18"/>
       <c r="I191" s="18"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="18"/>
       <c r="B192" s="18" t="s">
         <v>23</v>
@@ -11023,7 +11023,7 @@
       </c>
       <c r="I192" s="18"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
       <c r="B193" s="18" t="s">
         <v>23</v>
@@ -11048,7 +11048,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="18"/>
       <c r="B194" s="18" t="s">
         <v>23</v>
@@ -11069,7 +11069,7 @@
       <c r="H194" s="18"/>
       <c r="I194" s="18"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="18"/>
       <c r="B195" s="18" t="s">
         <v>23</v>
@@ -11094,7 +11094,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="18"/>
       <c r="B196" s="18" t="s">
         <v>23</v>
@@ -11119,7 +11119,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="b">
         <v>0</v>
       </c>
@@ -11138,7 +11138,7 @@
       <c r="H197" s="18"/>
       <c r="I197" s="18"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="18"/>
       <c r="B198" s="18" t="s">
         <v>23</v>
@@ -11163,7 +11163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="18"/>
       <c r="B199" s="18" t="s">
         <v>23</v>
@@ -11186,7 +11186,7 @@
       </c>
       <c r="I199" s="18"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="18"/>
       <c r="B200" s="18" t="s">
         <v>23</v>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I200" s="18"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="18" t="s">
         <v>23</v>
@@ -11232,7 +11232,7 @@
       </c>
       <c r="I201" s="18"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="18"/>
       <c r="B202" s="18" t="s">
         <v>23</v>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="I202" s="18"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="18"/>
       <c r="B203" s="18" t="s">
         <v>23</v>
@@ -11278,7 +11278,7 @@
       </c>
       <c r="I203" s="18"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="18"/>
       <c r="B204" s="18" t="s">
         <v>23</v>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I204" s="18"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="18"/>
       <c r="B205" s="18" t="s">
         <v>23</v>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="I205" s="18"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="18"/>
       <c r="B206" s="18" t="s">
         <v>23</v>
@@ -11347,7 +11347,7 @@
       </c>
       <c r="I206" s="18"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="b">
         <v>0</v>
       </c>
@@ -11366,7 +11366,7 @@
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="18"/>
       <c r="B208" s="18" t="s">
         <v>23</v>
@@ -11391,7 +11391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="18"/>
       <c r="B209" s="18" t="s">
         <v>23</v>
@@ -11414,7 +11414,7 @@
       </c>
       <c r="I209" s="18"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="18"/>
       <c r="B210" s="18" t="s">
         <v>23</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I210" s="18"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="18"/>
       <c r="B211" s="18" t="s">
         <v>23</v>
@@ -11460,7 +11460,7 @@
       </c>
       <c r="I211" s="18"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
       <c r="B212" s="18" t="s">
         <v>23</v>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="I212" s="18"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="18"/>
       <c r="B213" s="18" t="s">
         <v>23</v>
@@ -11506,7 +11506,7 @@
       </c>
       <c r="I213" s="18"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="18"/>
       <c r="B214" s="18" t="s">
         <v>23</v>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="I214" s="18"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="18"/>
       <c r="B215" s="18" t="s">
         <v>23</v>
@@ -11552,7 +11552,7 @@
       </c>
       <c r="I215" s="18"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="18"/>
       <c r="B216" s="18" t="s">
         <v>23</v>
@@ -11575,7 +11575,7 @@
       </c>
       <c r="I216" s="18"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="b">
         <v>0</v>
       </c>
@@ -11594,7 +11594,7 @@
       <c r="H217" s="18"/>
       <c r="I217" s="18"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="18"/>
       <c r="B218" s="18" t="s">
         <v>23</v>
@@ -11615,7 +11615,7 @@
       <c r="H218" s="18"/>
       <c r="I218" s="18"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="18"/>
       <c r="B219" s="18" t="s">
         <v>23</v>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="I219" s="18"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="18"/>
       <c r="B220" s="18" t="s">
         <v>23</v>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="I220" s="18"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="18"/>
       <c r="B221" s="18" t="s">
         <v>23</v>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="I221" s="18"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="18"/>
       <c r="B222" s="18" t="s">
         <v>23</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="I222" s="18"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="18"/>
       <c r="B223" s="18" t="s">
         <v>23</v>
@@ -11730,7 +11730,7 @@
       </c>
       <c r="I223" s="18"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="18"/>
       <c r="B224" s="18" t="s">
         <v>23</v>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="I224" s="18"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="18"/>
       <c r="B225" s="18" t="s">
         <v>23</v>
@@ -11776,7 +11776,7 @@
       </c>
       <c r="I225" s="18"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="18"/>
       <c r="B226" s="18" t="s">
         <v>23</v>
@@ -11799,7 +11799,7 @@
       </c>
       <c r="I226" s="18"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="18"/>
       <c r="B227" s="18" t="s">
         <v>23</v>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="I227" s="18"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="18"/>
       <c r="B228" s="18" t="s">
         <v>23</v>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I228" s="18"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="18"/>
       <c r="B229" s="18" t="s">
         <v>23</v>
@@ -11868,7 +11868,7 @@
       </c>
       <c r="I229" s="18"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="18"/>
       <c r="B230" s="18" t="s">
         <v>23</v>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="I230" s="18"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="18"/>
       <c r="B231" s="18" t="s">
         <v>23</v>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="I231" s="18"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="18"/>
       <c r="B232" s="18" t="s">
         <v>23</v>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="I232" s="18"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="18"/>
       <c r="B233" s="18" t="s">
         <v>23</v>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="I233" s="18"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="b">
         <v>0</v>
       </c>
@@ -11979,7 +11979,7 @@
       <c r="H234" s="18"/>
       <c r="I234" s="18"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="18"/>
       <c r="B235" s="18" t="s">
         <v>23</v>
@@ -12000,7 +12000,7 @@
       <c r="H235" s="18"/>
       <c r="I235" s="18"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="18"/>
       <c r="B236" s="18" t="s">
         <v>23</v>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="I236" s="18"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="18"/>
       <c r="B237" s="18" t="s">
         <v>23</v>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="I237" s="18"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="18"/>
       <c r="B238" s="18" t="s">
         <v>23</v>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="I238" s="18"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="18"/>
       <c r="B239" s="18" t="s">
         <v>23</v>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="I239" s="18"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="18"/>
       <c r="B240" s="18" t="s">
         <v>23</v>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="I240" s="18"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="18"/>
       <c r="B241" s="18" t="s">
         <v>23</v>
@@ -12138,7 +12138,7 @@
       </c>
       <c r="I241" s="18"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="18"/>
       <c r="B242" s="18" t="s">
         <v>23</v>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="I242" s="18"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="18"/>
       <c r="B243" s="18" t="s">
         <v>23</v>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="I243" s="18"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="18"/>
       <c r="B244" s="18" t="s">
         <v>23</v>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="I244" s="18"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="18"/>
       <c r="B245" s="18" t="s">
         <v>23</v>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="I245" s="18"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="18"/>
       <c r="B246" s="18" t="s">
         <v>23</v>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I246" s="18"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="18"/>
       <c r="B247" s="18" t="s">
         <v>23</v>
@@ -12276,7 +12276,7 @@
       </c>
       <c r="I247" s="18"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="18"/>
       <c r="B248" s="18" t="s">
         <v>23</v>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="I248" s="18"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="18"/>
       <c r="B249" s="18" t="s">
         <v>23</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="I249" s="18"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="18"/>
       <c r="B250" s="18" t="s">
         <v>23</v>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="I250" s="18"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="b">
         <v>0</v>
       </c>
@@ -12364,7 +12364,7 @@
       <c r="H251" s="18"/>
       <c r="I251" s="18"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="18"/>
       <c r="B252" s="18" t="s">
         <v>23</v>
@@ -12389,7 +12389,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="18"/>
       <c r="B253" s="18" t="s">
         <v>23</v>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="I253" s="18"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="18"/>
       <c r="B254" s="18" t="s">
         <v>23</v>
@@ -12435,7 +12435,7 @@
       </c>
       <c r="I254" s="18"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="18"/>
       <c r="B255" s="18" t="s">
         <v>23</v>
@@ -12458,7 +12458,7 @@
       </c>
       <c r="I255" s="18"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="18"/>
       <c r="B256" s="18" t="s">
         <v>23</v>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="I256" s="18"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="b">
         <v>0</v>
       </c>
@@ -12500,7 +12500,7 @@
       <c r="H257" s="18"/>
       <c r="I257" s="18"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="18"/>
       <c r="B258" s="18" t="s">
         <v>23</v>
@@ -12525,7 +12525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="18"/>
       <c r="B259" s="18" t="s">
         <v>23</v>
@@ -12548,7 +12548,7 @@
       </c>
       <c r="I259" s="18"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="18" t="b">
         <v>0</v>
       </c>
@@ -12567,7 +12567,7 @@
       <c r="H260" s="18"/>
       <c r="I260" s="18"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="b">
         <v>0</v>
       </c>
@@ -12586,7 +12586,7 @@
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="b">
         <v>0</v>
       </c>
@@ -12605,7 +12605,7 @@
       <c r="H262" s="18"/>
       <c r="I262" s="18"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="18"/>
       <c r="B263" s="18" t="s">
         <v>23</v>
@@ -12626,7 +12626,7 @@
       <c r="H263" s="18"/>
       <c r="I263" s="18"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="18"/>
       <c r="B264" s="18" t="s">
         <v>23</v>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="I264" s="18"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="18"/>
       <c r="B265" s="18" t="s">
         <v>23</v>
@@ -12672,7 +12672,7 @@
       </c>
       <c r="I265" s="18"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="18"/>
       <c r="B266" s="18" t="s">
         <v>23</v>
@@ -12695,7 +12695,7 @@
       </c>
       <c r="I266" s="18"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="18"/>
       <c r="B267" s="18" t="s">
         <v>23</v>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="I267" s="18"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="18"/>
       <c r="B268" s="18" t="s">
         <v>23</v>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="I268" s="18"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="18"/>
       <c r="B269" s="18" t="s">
         <v>23</v>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="I269" s="18"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="18"/>
       <c r="B270" s="18" t="s">
         <v>23</v>
@@ -12787,7 +12787,7 @@
       </c>
       <c r="I270" s="18"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="18"/>
       <c r="B271" s="18" t="s">
         <v>23</v>
@@ -12810,7 +12810,7 @@
       </c>
       <c r="I271" s="18"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="18"/>
       <c r="B272" s="18" t="s">
         <v>23</v>
@@ -12833,7 +12833,7 @@
       </c>
       <c r="I272" s="18"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="18"/>
       <c r="B273" s="18" t="s">
         <v>23</v>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="I273" s="18"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="b">
         <v>0</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="H274" s="18"/>
       <c r="I274" s="18"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="18"/>
       <c r="B275" s="18" t="s">
         <v>23</v>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="I275" s="18"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="b">
         <v>0</v>
       </c>
@@ -12917,7 +12917,7 @@
       <c r="H276" s="18"/>
       <c r="I276" s="18"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="18"/>
       <c r="B277" s="18" t="s">
         <v>23</v>
@@ -12942,7 +12942,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="18"/>
       <c r="B278" s="18" t="s">
         <v>23</v>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="I278" s="18"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="18"/>
       <c r="B279" s="18" t="s">
         <v>23</v>
@@ -12988,7 +12988,7 @@
       </c>
       <c r="I279" s="18"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="18"/>
       <c r="B280" s="18" t="s">
         <v>23</v>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="I280" s="18"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="18"/>
       <c r="B281" s="18" t="s">
         <v>23</v>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="I281" s="18"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="18"/>
       <c r="B282" s="18" t="s">
         <v>23</v>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="I282" s="18"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="18"/>
       <c r="B283" s="18" t="s">
         <v>23</v>
@@ -13080,7 +13080,7 @@
       </c>
       <c r="I283" s="18"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="18"/>
       <c r="B284" s="18" t="s">
         <v>23</v>
@@ -13103,7 +13103,7 @@
       </c>
       <c r="I284" s="18"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="18"/>
       <c r="B285" s="18" t="s">
         <v>23</v>
@@ -13126,7 +13126,7 @@
       </c>
       <c r="I285" s="18"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="18"/>
       <c r="B286" s="18" t="s">
         <v>23</v>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="I286" s="18"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="18"/>
       <c r="B287" s="18" t="s">
         <v>23</v>
@@ -13172,7 +13172,7 @@
       </c>
       <c r="I287" s="18"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="b">
         <v>0</v>
       </c>
@@ -13191,7 +13191,7 @@
       <c r="H288" s="18"/>
       <c r="I288" s="18"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="18"/>
       <c r="B289" s="18" t="s">
         <v>23</v>
@@ -13214,7 +13214,7 @@
       </c>
       <c r="I289" s="18"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="18" t="b">
         <v>0</v>
       </c>
@@ -13233,7 +13233,7 @@
       <c r="H290" s="18"/>
       <c r="I290" s="18"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="18"/>
       <c r="B291" s="18" t="s">
         <v>23</v>
@@ -13254,7 +13254,7 @@
       <c r="H291" s="18"/>
       <c r="I291" s="18"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="18" t="b">
         <v>0</v>
       </c>
@@ -13273,7 +13273,7 @@
       <c r="H292" s="18"/>
       <c r="I292" s="18"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="18"/>
       <c r="B293" s="18" t="s">
         <v>23</v>
@@ -13294,7 +13294,7 @@
       <c r="H293" s="18"/>
       <c r="I293" s="18"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="18" t="b">
         <v>0</v>
       </c>
@@ -13313,7 +13313,7 @@
       <c r="H294" s="18"/>
       <c r="I294" s="18"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="18"/>
       <c r="B295" s="18" t="s">
         <v>23</v>
@@ -13334,7 +13334,7 @@
       <c r="H295" s="18"/>
       <c r="I295" s="18"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="18" t="b">
         <v>0</v>
       </c>
@@ -13353,7 +13353,7 @@
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="18"/>
       <c r="B297" s="18" t="s">
         <v>23</v>
@@ -13376,7 +13376,7 @@
       </c>
       <c r="I297" s="18"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="18" t="b">
         <v>0</v>
       </c>
@@ -13395,7 +13395,7 @@
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="18"/>
       <c r="B299" s="18" t="s">
         <v>23</v>
@@ -13420,7 +13420,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="18"/>
       <c r="B300" s="18" t="s">
         <v>23</v>
@@ -13443,7 +13443,7 @@
       </c>
       <c r="I300" s="18"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="18"/>
       <c r="B301" s="18" t="s">
         <v>23</v>
@@ -13466,7 +13466,7 @@
       </c>
       <c r="I301" s="18"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="18"/>
       <c r="B302" s="18" t="s">
         <v>23</v>
@@ -13489,7 +13489,7 @@
       </c>
       <c r="I302" s="18"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="18"/>
       <c r="B303" s="18" t="s">
         <v>23</v>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="I303" s="18"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="18"/>
       <c r="B304" s="18" t="s">
         <v>23</v>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="I304" s="18"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="18"/>
       <c r="B305" s="18" t="s">
         <v>23</v>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="I305" s="18"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="18"/>
       <c r="B306" s="18" t="s">
         <v>23</v>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="I306" s="18"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="18"/>
       <c r="B307" s="18" t="s">
         <v>23</v>
@@ -13604,7 +13604,7 @@
       </c>
       <c r="I307" s="18"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="18" t="b">
         <v>0</v>
       </c>
@@ -13623,7 +13623,7 @@
       <c r="H308" s="18"/>
       <c r="I308" s="18"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="18"/>
       <c r="B309" s="18" t="s">
         <v>23</v>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="I309" s="18"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="18"/>
       <c r="B310" s="18" t="s">
         <v>23</v>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="I310" s="18"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="18"/>
       <c r="B311" s="18" t="s">
         <v>23</v>
@@ -13692,7 +13692,7 @@
       </c>
       <c r="I311" s="18"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="18"/>
       <c r="B312" s="18" t="s">
         <v>23</v>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="I312" s="18"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="18" t="b">
         <v>0</v>
       </c>
@@ -13734,7 +13734,7 @@
       <c r="H313" s="18"/>
       <c r="I313" s="18"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="18"/>
       <c r="B314" s="18" t="s">
         <v>23</v>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="I314" s="18"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="18"/>
       <c r="B315" s="18" t="s">
         <v>23</v>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="I315" s="18"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="18"/>
       <c r="B316" s="18" t="s">
         <v>23</v>
@@ -13805,7 +13805,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="18" t="b">
         <v>0</v>
       </c>
@@ -13824,7 +13824,7 @@
       <c r="H317" s="18"/>
       <c r="I317" s="18"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="18"/>
       <c r="B318" s="18" t="s">
         <v>23</v>
@@ -13849,7 +13849,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="18"/>
       <c r="B319" s="18" t="s">
         <v>23</v>
@@ -13872,7 +13872,7 @@
       </c>
       <c r="I319" s="18"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="18" t="b">
         <v>0</v>
       </c>
@@ -13891,7 +13891,7 @@
       <c r="H320" s="18"/>
       <c r="I320" s="18"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="18"/>
       <c r="B321" s="18" t="s">
         <v>23</v>
@@ -13912,7 +13912,7 @@
       <c r="H321" s="18"/>
       <c r="I321" s="18"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="18"/>
       <c r="B322" s="18" t="s">
         <v>23</v>
@@ -13933,7 +13933,7 @@
       <c r="H322" s="18"/>
       <c r="I322" s="18"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="18"/>
       <c r="B323" s="18" t="s">
         <v>23</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="I323" s="18"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="18" t="b">
         <v>0</v>
       </c>
@@ -13975,7 +13975,7 @@
       <c r="H324" s="18"/>
       <c r="I324" s="18"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="18" t="b">
         <v>0</v>
       </c>
@@ -13994,7 +13994,7 @@
       <c r="H325" s="18"/>
       <c r="I325" s="18"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="18"/>
       <c r="B326" s="18" t="s">
         <v>23</v>
@@ -14019,7 +14019,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="18"/>
       <c r="B327" s="18" t="s">
         <v>23</v>
@@ -14044,7 +14044,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>23</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>23</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>23</v>
       </c>
@@ -14121,7 +14121,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>23</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>23</v>
       </c>
@@ -14158,7 +14158,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>23</v>
       </c>
@@ -14181,7 +14181,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>23</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>23</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>23</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>23</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>23</v>
       </c>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>23</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -14347,7 +14347,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>23</v>
@@ -14376,7 +14376,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="18"/>
       <c r="B344" t="s">
         <v>23</v>
@@ -14415,7 +14415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -14429,7 +14429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>23</v>
       </c>
@@ -14449,7 +14449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>23</v>
       </c>
@@ -14483,7 +14483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>23</v>
       </c>
@@ -14503,7 +14503,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>23</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>23</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>23</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>23</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>23</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>23</v>
       </c>
@@ -14623,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>23</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>23</v>
       </c>
@@ -14677,7 +14677,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>23</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -14713,7 +14713,7 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>23</v>
       </c>
@@ -14739,7 +14739,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="18"/>
       <c r="B362" t="s">
         <v>24</v>
@@ -14780,7 +14780,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -14794,7 +14794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>23</v>
       </c>
@@ -14814,7 +14814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>23</v>
       </c>
@@ -14867,13 +14867,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>453</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>444</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>451</v>
       </c>
@@ -14917,7 +14917,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>445</v>
       </c>
@@ -14928,17 +14928,17 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>467</v>
       </c>

--- a/spec/files/discrete_dynamic_columns.xlsx
+++ b/spec/files/discrete_dynamic_columns.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24480" windowHeight="14940" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$5</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1991,8 +1991,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1467">
+  <cellStyleXfs count="1469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3531,7 +3533,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1467">
+  <cellStyles count="1469">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4265,6 +4267,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4998,6 +5001,7 @@
     <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5303,17 +5307,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -5333,21 +5337,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="20"/>
       <c r="B1" s="25"/>
       <c r="C1" s="20"/>
@@ -5356,7 +5360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>440</v>
       </c>
@@ -5365,7 +5369,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>441</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>471</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>489</v>
       </c>
@@ -5398,7 +5402,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
         <v>491</v>
       </c>
@@ -5409,7 +5413,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>454</v>
       </c>
@@ -5428,7 +5432,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>455</v>
       </c>
@@ -5447,7 +5451,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>473</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="13" customFormat="1">
       <c r="A11" s="12" t="s">
         <v>30</v>
       </c>
@@ -5469,7 +5473,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -5491,7 +5495,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>482</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>483</v>
       </c>
@@ -5521,7 +5525,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>484</v>
       </c>
@@ -5532,7 +5536,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>486</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A20" s="12" t="s">
         <v>29</v>
       </c>
@@ -5554,7 +5558,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>466</v>
       </c>
@@ -5562,7 +5566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A23" s="12" t="s">
         <v>465</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -5581,7 +5585,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -5589,7 +5593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>568</v>
       </c>
@@ -5597,7 +5601,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>572</v>
       </c>
@@ -5605,7 +5609,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>569</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>571</v>
       </c>
@@ -5621,7 +5625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
@@ -5634,7 +5638,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A33" s="12" t="s">
         <v>32</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="28">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -5676,7 +5680,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A36" s="12" t="s">
         <v>37</v>
       </c>
@@ -5720,37 +5724,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="1"/>
-    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" style="1"/>
-    <col min="19" max="19" width="46.140625" style="1" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="1"/>
-    <col min="23" max="23" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="43.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" style="1"/>
+    <col min="19" max="19" width="46.1640625" style="1" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="1"/>
+    <col min="23" max="23" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5785,7 +5789,7 @@
       <c r="X1" s="32"/>
       <c r="Y1" s="32"/>
     </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -5798,7 +5802,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:25" s="15" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="15" customFormat="1" ht="45">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -5905,7 +5909,7 @@
       <c r="N5" s="3"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" customFormat="1" ht="15">
       <c r="A6" s="18" t="b">
         <v>1</v>
       </c>
@@ -5931,7 +5935,7 @@
       <c r="O6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" customFormat="1" ht="15">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
         <v>24</v>
@@ -5953,8 +5957,12 @@
         <v>0</v>
       </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5</v>
+      </c>
       <c r="L7" s="3">
         <v>5</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" customFormat="1" ht="15">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
         <v>24</v>
@@ -5992,9 +6000,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>4</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="1" t="s">
@@ -6007,7 +6021,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" customFormat="1" ht="15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>23</v>
@@ -6055,18 +6069,18 @@
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -6077,7 +6091,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>475</v>
       </c>
@@ -6097,7 +6111,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="15">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
@@ -6109,7 +6123,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>563</v>
       </c>
@@ -6128,7 +6142,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>565</v>
       </c>
@@ -6147,7 +6161,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>574</v>
       </c>
@@ -6169,7 +6183,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>575</v>
       </c>
@@ -6191,7 +6205,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>576</v>
       </c>
@@ -6213,7 +6227,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>577</v>
       </c>
@@ -6235,7 +6249,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>578</v>
       </c>
@@ -6257,7 +6271,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>579</v>
       </c>
@@ -6279,7 +6293,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>580</v>
       </c>
@@ -6301,7 +6315,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>581</v>
       </c>
@@ -6323,7 +6337,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>582</v>
       </c>
@@ -6345,7 +6359,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" customFormat="1">
       <c r="A15" t="s">
         <v>583</v>
       </c>
@@ -6366,7 +6380,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" customFormat="1">
       <c r="A16" t="s">
         <v>584</v>
       </c>
@@ -6387,7 +6401,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" customFormat="1">
       <c r="A17" t="s">
         <v>585</v>
       </c>
@@ -6408,7 +6422,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" customFormat="1">
       <c r="A18" t="s">
         <v>586</v>
       </c>
@@ -6429,7 +6443,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" customFormat="1">
       <c r="A19" t="s">
         <v>587</v>
       </c>
@@ -6450,7 +6464,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" customFormat="1">
       <c r="A20" t="s">
         <v>588</v>
       </c>
@@ -6471,7 +6485,7 @@
         <v>46320380000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>589</v>
       </c>
@@ -6493,7 +6507,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>590</v>
       </c>
@@ -6515,7 +6529,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>591</v>
       </c>
@@ -6537,7 +6551,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>592</v>
       </c>
@@ -6559,7 +6573,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>593</v>
       </c>
@@ -6581,7 +6595,7 @@
       </c>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>594</v>
       </c>
@@ -6603,7 +6617,7 @@
       </c>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>595</v>
       </c>
@@ -6625,7 +6639,7 @@
       </c>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>596</v>
       </c>
@@ -6647,7 +6661,7 @@
       </c>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>597</v>
       </c>
@@ -6669,7 +6683,7 @@
       </c>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6697,19 +6711,19 @@
       <selection sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="18" t="b">
         <v>0</v>
       </c>
@@ -6728,7 +6742,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="18"/>
       <c r="B2" s="18" t="s">
         <v>23</v>
@@ -6749,7 +6763,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="18"/>
       <c r="B3" s="18" t="s">
         <v>23</v>
@@ -6772,7 +6786,7 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="18"/>
       <c r="B4" s="18" t="s">
         <v>23</v>
@@ -6795,7 +6809,7 @@
       </c>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="18"/>
       <c r="B5" s="18" t="s">
         <v>23</v>
@@ -6818,7 +6832,7 @@
       </c>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="18"/>
       <c r="B6" s="18" t="s">
         <v>23</v>
@@ -6841,7 +6855,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
         <v>23</v>
@@ -6864,7 +6878,7 @@
       </c>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
         <v>23</v>
@@ -6887,7 +6901,7 @@
       </c>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
         <v>23</v>
@@ -6910,7 +6924,7 @@
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
         <v>23</v>
@@ -6933,7 +6947,7 @@
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="18" t="b">
         <v>0</v>
       </c>
@@ -6952,7 +6966,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
         <v>23</v>
@@ -6973,7 +6987,7 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="18"/>
       <c r="B13" s="18" t="s">
         <v>23</v>
@@ -6996,7 +7010,7 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
         <v>23</v>
@@ -7019,7 +7033,7 @@
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
         <v>23</v>
@@ -7042,7 +7056,7 @@
       </c>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="18"/>
       <c r="B16" s="18" t="s">
         <v>23</v>
@@ -7065,7 +7079,7 @@
       </c>
       <c r="I16" s="18"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
         <v>23</v>
@@ -7088,7 +7102,7 @@
       </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="18"/>
       <c r="B18" s="18" t="s">
         <v>23</v>
@@ -7111,7 +7125,7 @@
       </c>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="18"/>
       <c r="B19" s="18" t="s">
         <v>23</v>
@@ -7134,7 +7148,7 @@
       </c>
       <c r="I19" s="18"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
         <v>23</v>
@@ -7157,7 +7171,7 @@
       </c>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="18" t="b">
         <v>0</v>
       </c>
@@ -7176,7 +7190,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="18"/>
       <c r="B22" s="18" t="s">
         <v>23</v>
@@ -7199,7 +7213,7 @@
       </c>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>23</v>
@@ -7222,7 +7236,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="18"/>
       <c r="B24" s="18" t="s">
         <v>23</v>
@@ -7245,7 +7259,7 @@
       </c>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="18"/>
       <c r="B25" s="18" t="s">
         <v>23</v>
@@ -7268,7 +7282,7 @@
       </c>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="18"/>
       <c r="B26" s="18" t="s">
         <v>23</v>
@@ -7291,7 +7305,7 @@
       </c>
       <c r="I26" s="18"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="18"/>
       <c r="B27" s="18" t="s">
         <v>23</v>
@@ -7314,7 +7328,7 @@
       </c>
       <c r="I27" s="18"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="18"/>
       <c r="B28" s="18" t="s">
         <v>23</v>
@@ -7337,7 +7351,7 @@
       </c>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="18"/>
       <c r="B29" s="18" t="s">
         <v>23</v>
@@ -7360,7 +7374,7 @@
       </c>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="18"/>
       <c r="B30" s="18" t="s">
         <v>23</v>
@@ -7383,7 +7397,7 @@
       </c>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="18" t="b">
         <v>0</v>
       </c>
@@ -7402,7 +7416,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="18"/>
       <c r="B32" s="18" t="s">
         <v>23</v>
@@ -7423,7 +7437,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="18"/>
       <c r="B33" s="18" t="s">
         <v>23</v>
@@ -7446,7 +7460,7 @@
       </c>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="18"/>
       <c r="B34" s="18" t="s">
         <v>23</v>
@@ -7469,7 +7483,7 @@
       </c>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="18"/>
       <c r="B35" s="18" t="s">
         <v>23</v>
@@ -7492,7 +7506,7 @@
       </c>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="18"/>
       <c r="B36" s="18" t="s">
         <v>23</v>
@@ -7515,7 +7529,7 @@
       </c>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="18"/>
       <c r="B37" s="18" t="s">
         <v>23</v>
@@ -7538,7 +7552,7 @@
       </c>
       <c r="I37" s="18"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="18"/>
       <c r="B38" s="18" t="s">
         <v>23</v>
@@ -7561,7 +7575,7 @@
       </c>
       <c r="I38" s="18"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="18"/>
       <c r="B39" s="18" t="s">
         <v>23</v>
@@ -7584,7 +7598,7 @@
       </c>
       <c r="I39" s="18"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="18"/>
       <c r="B40" s="18" t="s">
         <v>23</v>
@@ -7607,7 +7621,7 @@
       </c>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="18" t="b">
         <v>0</v>
       </c>
@@ -7626,7 +7640,7 @@
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="18"/>
       <c r="B42" s="18" t="s">
         <v>23</v>
@@ -7647,7 +7661,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="18"/>
       <c r="B43" s="18" t="s">
         <v>23</v>
@@ -7670,7 +7684,7 @@
       </c>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="18"/>
       <c r="B44" s="18" t="s">
         <v>23</v>
@@ -7693,7 +7707,7 @@
       </c>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="18"/>
       <c r="B45" s="18" t="s">
         <v>23</v>
@@ -7716,7 +7730,7 @@
       </c>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="18"/>
       <c r="B46" s="18" t="s">
         <v>23</v>
@@ -7739,7 +7753,7 @@
       </c>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="18"/>
       <c r="B47" s="18" t="s">
         <v>23</v>
@@ -7762,7 +7776,7 @@
       </c>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="18"/>
       <c r="B48" s="18" t="s">
         <v>23</v>
@@ -7785,7 +7799,7 @@
       </c>
       <c r="I48" s="18"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="18"/>
       <c r="B49" s="18" t="s">
         <v>23</v>
@@ -7808,7 +7822,7 @@
       </c>
       <c r="I49" s="18"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="18"/>
       <c r="B50" s="18" t="s">
         <v>23</v>
@@ -7831,7 +7845,7 @@
       </c>
       <c r="I50" s="18"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="18" t="b">
         <v>0</v>
       </c>
@@ -7850,7 +7864,7 @@
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="18"/>
       <c r="B52" s="18" t="s">
         <v>23</v>
@@ -7871,7 +7885,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="18"/>
       <c r="B53" s="18" t="s">
         <v>23</v>
@@ -7894,7 +7908,7 @@
       </c>
       <c r="I53" s="18"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="18"/>
       <c r="B54" s="18" t="s">
         <v>23</v>
@@ -7917,7 +7931,7 @@
       </c>
       <c r="I54" s="18"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="18"/>
       <c r="B55" s="18" t="s">
         <v>23</v>
@@ -7940,7 +7954,7 @@
       </c>
       <c r="I55" s="18"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="18"/>
       <c r="B56" s="18" t="s">
         <v>23</v>
@@ -7963,7 +7977,7 @@
       </c>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="18"/>
       <c r="B57" s="18" t="s">
         <v>23</v>
@@ -7986,7 +8000,7 @@
       </c>
       <c r="I57" s="18"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="18"/>
       <c r="B58" s="18" t="s">
         <v>23</v>
@@ -8009,7 +8023,7 @@
       </c>
       <c r="I58" s="18"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="18"/>
       <c r="B59" s="18" t="s">
         <v>23</v>
@@ -8032,7 +8046,7 @@
       </c>
       <c r="I59" s="18"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="18"/>
       <c r="B60" s="18" t="s">
         <v>23</v>
@@ -8055,7 +8069,7 @@
       </c>
       <c r="I60" s="18"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="18" t="b">
         <v>0</v>
       </c>
@@ -8074,7 +8088,7 @@
       <c r="H61" s="18"/>
       <c r="I61" s="18"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="18"/>
       <c r="B62" s="18" t="s">
         <v>23</v>
@@ -8095,7 +8109,7 @@
       <c r="H62" s="18"/>
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="18"/>
       <c r="B63" s="18" t="s">
         <v>23</v>
@@ -8120,7 +8134,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="18"/>
       <c r="B64" s="18" t="s">
         <v>23</v>
@@ -8143,7 +8157,7 @@
       </c>
       <c r="I64" s="18"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="18"/>
       <c r="B65" s="18" t="s">
         <v>23</v>
@@ -8166,7 +8180,7 @@
       </c>
       <c r="I65" s="18"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="18"/>
       <c r="B66" s="18" t="s">
         <v>23</v>
@@ -8189,7 +8203,7 @@
       </c>
       <c r="I66" s="18"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="18"/>
       <c r="B67" s="18" t="s">
         <v>23</v>
@@ -8212,7 +8226,7 @@
       </c>
       <c r="I67" s="18"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="18"/>
       <c r="B68" s="18" t="s">
         <v>23</v>
@@ -8235,7 +8249,7 @@
       </c>
       <c r="I68" s="18"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="18"/>
       <c r="B69" s="18" t="s">
         <v>23</v>
@@ -8258,7 +8272,7 @@
       </c>
       <c r="I69" s="18"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="18"/>
       <c r="B70" s="18" t="s">
         <v>23</v>
@@ -8281,7 +8295,7 @@
       </c>
       <c r="I70" s="18"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="18"/>
       <c r="B71" s="18" t="s">
         <v>23</v>
@@ -8304,7 +8318,7 @@
       </c>
       <c r="I71" s="18"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="18" t="b">
         <v>0</v>
       </c>
@@ -8323,7 +8337,7 @@
       <c r="H72" s="18"/>
       <c r="I72" s="18"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="18"/>
       <c r="B73" s="18" t="s">
         <v>23</v>
@@ -8344,7 +8358,7 @@
       <c r="H73" s="18"/>
       <c r="I73" s="18"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="18"/>
       <c r="B74" s="18" t="s">
         <v>23</v>
@@ -8367,7 +8381,7 @@
       </c>
       <c r="I74" s="18"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="18"/>
       <c r="B75" s="18" t="s">
         <v>23</v>
@@ -8392,7 +8406,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="18"/>
       <c r="B76" s="18" t="s">
         <v>23</v>
@@ -8415,7 +8429,7 @@
       </c>
       <c r="I76" s="18"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="18"/>
       <c r="B77" s="18" t="s">
         <v>23</v>
@@ -8438,7 +8452,7 @@
       </c>
       <c r="I77" s="18"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="18"/>
       <c r="B78" s="18" t="s">
         <v>23</v>
@@ -8461,7 +8475,7 @@
       </c>
       <c r="I78" s="18"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="18"/>
       <c r="B79" s="18" t="s">
         <v>23</v>
@@ -8484,7 +8498,7 @@
       </c>
       <c r="I79" s="18"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="18"/>
       <c r="B80" s="18" t="s">
         <v>23</v>
@@ -8507,7 +8521,7 @@
       </c>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="18"/>
       <c r="B81" s="18" t="s">
         <v>23</v>
@@ -8530,7 +8544,7 @@
       </c>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="18"/>
       <c r="B82" s="18" t="s">
         <v>23</v>
@@ -8553,7 +8567,7 @@
       </c>
       <c r="I82" s="18"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="18"/>
       <c r="B83" s="18" t="s">
         <v>23</v>
@@ -8576,7 +8590,7 @@
       </c>
       <c r="I83" s="18"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="18"/>
       <c r="B84" s="18" t="s">
         <v>23</v>
@@ -8599,7 +8613,7 @@
       </c>
       <c r="I84" s="18"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="18"/>
       <c r="B85" s="18" t="s">
         <v>23</v>
@@ -8622,7 +8636,7 @@
       </c>
       <c r="I85" s="18"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="18" t="b">
         <v>0</v>
       </c>
@@ -8641,7 +8655,7 @@
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="18"/>
       <c r="B87" s="18" t="s">
         <v>23</v>
@@ -8664,7 +8678,7 @@
       </c>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="18"/>
       <c r="B88" s="18" t="s">
         <v>23</v>
@@ -8687,7 +8701,7 @@
       </c>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="18"/>
       <c r="B89" s="18" t="s">
         <v>23</v>
@@ -8710,7 +8724,7 @@
       </c>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="18"/>
       <c r="B90" s="18" t="s">
         <v>23</v>
@@ -8733,7 +8747,7 @@
       </c>
       <c r="I90" s="18"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="18"/>
       <c r="B91" s="18" t="s">
         <v>23</v>
@@ -8756,7 +8770,7 @@
       </c>
       <c r="I91" s="18"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="18"/>
       <c r="B92" s="18" t="s">
         <v>23</v>
@@ -8779,7 +8793,7 @@
       </c>
       <c r="I92" s="18"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="18"/>
       <c r="B93" s="18" t="s">
         <v>23</v>
@@ -8802,7 +8816,7 @@
       </c>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="18"/>
       <c r="B94" s="18" t="s">
         <v>23</v>
@@ -8825,7 +8839,7 @@
       </c>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="18"/>
       <c r="B95" s="18" t="s">
         <v>23</v>
@@ -8848,7 +8862,7 @@
       </c>
       <c r="I95" s="18"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="18"/>
       <c r="B96" s="18" t="s">
         <v>23</v>
@@ -8871,7 +8885,7 @@
       </c>
       <c r="I96" s="18"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="18" t="b">
         <v>0</v>
       </c>
@@ -8890,7 +8904,7 @@
       <c r="H97" s="18"/>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="18"/>
       <c r="B98" s="18" t="s">
         <v>23</v>
@@ -8915,7 +8929,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="18" t="b">
         <v>0</v>
       </c>
@@ -8934,7 +8948,7 @@
       <c r="H99" s="18"/>
       <c r="I99" s="18"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="18"/>
       <c r="B100" s="18" t="s">
         <v>23</v>
@@ -8955,7 +8969,7 @@
       <c r="H100" s="18"/>
       <c r="I100" s="18"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="18"/>
       <c r="B101" s="18" t="s">
         <v>23</v>
@@ -8980,7 +8994,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="18" t="b">
         <v>0</v>
       </c>
@@ -8999,7 +9013,7 @@
       <c r="H102" s="18"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="18"/>
       <c r="B103" s="18" t="s">
         <v>23</v>
@@ -9022,7 +9036,7 @@
       </c>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="18"/>
       <c r="B104" s="18" t="s">
         <v>23</v>
@@ -9047,7 +9061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="18"/>
       <c r="B105" s="18" t="s">
         <v>23</v>
@@ -9070,7 +9084,7 @@
       </c>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="18"/>
       <c r="B106" s="18" t="s">
         <v>23</v>
@@ -9091,7 +9105,7 @@
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="18" t="b">
         <v>0</v>
       </c>
@@ -9110,7 +9124,7 @@
       <c r="H107" s="18"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="18"/>
       <c r="B108" s="18" t="s">
         <v>23</v>
@@ -9135,7 +9149,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="18"/>
       <c r="B109" s="18" t="s">
         <v>23</v>
@@ -9158,7 +9172,7 @@
       </c>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="18"/>
       <c r="B110" s="18" t="s">
         <v>23</v>
@@ -9181,7 +9195,7 @@
       </c>
       <c r="I110" s="18"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="18"/>
       <c r="B111" s="18" t="s">
         <v>23</v>
@@ -9204,7 +9218,7 @@
       </c>
       <c r="I111" s="18"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="18"/>
       <c r="B112" s="18" t="s">
         <v>23</v>
@@ -9227,7 +9241,7 @@
       </c>
       <c r="I112" s="18"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="18"/>
       <c r="B113" s="18" t="s">
         <v>23</v>
@@ -9250,7 +9264,7 @@
       </c>
       <c r="I113" s="18"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="18"/>
       <c r="B114" s="18" t="s">
         <v>23</v>
@@ -9273,7 +9287,7 @@
       </c>
       <c r="I114" s="18"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="18" t="b">
         <v>0</v>
       </c>
@@ -9292,7 +9306,7 @@
       <c r="H115" s="18"/>
       <c r="I115" s="18"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="18"/>
       <c r="B116" s="18" t="s">
         <v>23</v>
@@ -9315,7 +9329,7 @@
       </c>
       <c r="I116" s="18"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="18"/>
       <c r="B117" s="18" t="s">
         <v>23</v>
@@ -9338,7 +9352,7 @@
       </c>
       <c r="I117" s="18"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="18"/>
       <c r="B118" s="18" t="s">
         <v>23</v>
@@ -9361,7 +9375,7 @@
       </c>
       <c r="I118" s="18"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="18" t="b">
         <v>0</v>
       </c>
@@ -9380,7 +9394,7 @@
       <c r="H119" s="18"/>
       <c r="I119" s="18"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="18"/>
       <c r="B120" s="18" t="s">
         <v>23</v>
@@ -9403,7 +9417,7 @@
       </c>
       <c r="I120" s="18"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="18"/>
       <c r="B121" s="18" t="s">
         <v>23</v>
@@ -9426,7 +9440,7 @@
       </c>
       <c r="I121" s="18"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="18"/>
       <c r="B122" s="18" t="s">
         <v>23</v>
@@ -9449,7 +9463,7 @@
       </c>
       <c r="I122" s="18"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="18"/>
       <c r="B123" s="18" t="s">
         <v>23</v>
@@ -9472,7 +9486,7 @@
       </c>
       <c r="I123" s="18"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="18"/>
       <c r="B124" s="18" t="s">
         <v>23</v>
@@ -9495,7 +9509,7 @@
       </c>
       <c r="I124" s="18"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="18"/>
       <c r="B125" s="18" t="s">
         <v>23</v>
@@ -9518,7 +9532,7 @@
       </c>
       <c r="I125" s="18"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="18" t="b">
         <v>0</v>
       </c>
@@ -9537,7 +9551,7 @@
       <c r="H126" s="18"/>
       <c r="I126" s="18"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="18"/>
       <c r="B127" s="18" t="s">
         <v>23</v>
@@ -9562,7 +9576,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="18"/>
       <c r="B128" s="18" t="s">
         <v>23</v>
@@ -9585,7 +9599,7 @@
       </c>
       <c r="I128" s="18"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="18"/>
       <c r="B129" s="18" t="s">
         <v>23</v>
@@ -9608,7 +9622,7 @@
       </c>
       <c r="I129" s="18"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="18"/>
       <c r="B130" s="18" t="s">
         <v>23</v>
@@ -9631,7 +9645,7 @@
       </c>
       <c r="I130" s="18"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="18"/>
       <c r="B131" s="18" t="s">
         <v>23</v>
@@ -9654,7 +9668,7 @@
       </c>
       <c r="I131" s="18"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="18"/>
       <c r="B132" s="18" t="s">
         <v>23</v>
@@ -9677,7 +9691,7 @@
       </c>
       <c r="I132" s="18"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="18"/>
       <c r="B133" s="18" t="s">
         <v>23</v>
@@ -9700,7 +9714,7 @@
       </c>
       <c r="I133" s="18"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="18"/>
       <c r="B134" s="18" t="s">
         <v>23</v>
@@ -9723,7 +9737,7 @@
       </c>
       <c r="I134" s="18"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="18"/>
       <c r="B135" s="18" t="s">
         <v>23</v>
@@ -9746,7 +9760,7 @@
       </c>
       <c r="I135" s="18"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="18" t="b">
         <v>0</v>
       </c>
@@ -9765,7 +9779,7 @@
       <c r="H136" s="18"/>
       <c r="I136" s="18"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="18"/>
       <c r="B137" s="18" t="s">
         <v>23</v>
@@ -9790,7 +9804,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="18"/>
       <c r="B138" s="18" t="s">
         <v>23</v>
@@ -9811,7 +9825,7 @@
       <c r="H138" s="18"/>
       <c r="I138" s="18"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="18"/>
       <c r="B139" s="18" t="s">
         <v>23</v>
@@ -9834,7 +9848,7 @@
       </c>
       <c r="I139" s="18"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="18"/>
       <c r="B140" s="18" t="s">
         <v>23</v>
@@ -9857,7 +9871,7 @@
       </c>
       <c r="I140" s="18"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="18"/>
       <c r="B141" s="18" t="s">
         <v>23</v>
@@ -9880,7 +9894,7 @@
       </c>
       <c r="I141" s="18"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="18"/>
       <c r="B142" s="18" t="s">
         <v>23</v>
@@ -9903,7 +9917,7 @@
       </c>
       <c r="I142" s="18"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="18"/>
       <c r="B143" s="18" t="s">
         <v>23</v>
@@ -9926,7 +9940,7 @@
       </c>
       <c r="I143" s="18"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="18"/>
       <c r="B144" s="18" t="s">
         <v>23</v>
@@ -9949,7 +9963,7 @@
       </c>
       <c r="I144" s="18"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="18"/>
       <c r="B145" s="18" t="s">
         <v>23</v>
@@ -9972,7 +9986,7 @@
       </c>
       <c r="I145" s="18"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="18"/>
       <c r="B146" s="18" t="s">
         <v>23</v>
@@ -9995,7 +10009,7 @@
       </c>
       <c r="I146" s="18"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="18"/>
       <c r="B147" s="18" t="s">
         <v>23</v>
@@ -10018,7 +10032,7 @@
       </c>
       <c r="I147" s="18"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="18"/>
       <c r="B148" s="18" t="s">
         <v>23</v>
@@ -10041,7 +10055,7 @@
       </c>
       <c r="I148" s="18"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="18"/>
       <c r="B149" s="18" t="s">
         <v>23</v>
@@ -10064,7 +10078,7 @@
       </c>
       <c r="I149" s="18"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="18"/>
       <c r="B150" s="18" t="s">
         <v>23</v>
@@ -10087,7 +10101,7 @@
       </c>
       <c r="I150" s="18"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="18" t="b">
         <v>0</v>
       </c>
@@ -10106,7 +10120,7 @@
       <c r="H151" s="18"/>
       <c r="I151" s="18"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="18"/>
       <c r="B152" s="18" t="s">
         <v>23</v>
@@ -10129,7 +10143,7 @@
       </c>
       <c r="I152" s="18"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="18" t="b">
         <v>0</v>
       </c>
@@ -10148,7 +10162,7 @@
       <c r="H153" s="18"/>
       <c r="I153" s="18"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="18"/>
       <c r="B154" s="18" t="s">
         <v>23</v>
@@ -10171,7 +10185,7 @@
       </c>
       <c r="I154" s="18"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="18"/>
       <c r="B155" s="18" t="s">
         <v>23</v>
@@ -10194,7 +10208,7 @@
       </c>
       <c r="I155" s="18"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="18" t="b">
         <v>0</v>
       </c>
@@ -10213,7 +10227,7 @@
       <c r="H156" s="18"/>
       <c r="I156" s="18"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="18"/>
       <c r="B157" s="18" t="s">
         <v>23</v>
@@ -10238,7 +10252,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="18"/>
       <c r="B158" s="18" t="s">
         <v>23</v>
@@ -10261,7 +10275,7 @@
       </c>
       <c r="I158" s="18"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="18"/>
       <c r="B159" s="18" t="s">
         <v>23</v>
@@ -10284,7 +10298,7 @@
       </c>
       <c r="I159" s="18"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="18"/>
       <c r="B160" s="18" t="s">
         <v>23</v>
@@ -10307,7 +10321,7 @@
       </c>
       <c r="I160" s="18"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="18"/>
       <c r="B161" s="18" t="s">
         <v>23</v>
@@ -10330,7 +10344,7 @@
       </c>
       <c r="I161" s="18"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="18"/>
       <c r="B162" s="18" t="s">
         <v>23</v>
@@ -10353,7 +10367,7 @@
       </c>
       <c r="I162" s="18"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="18"/>
       <c r="B163" s="18" t="s">
         <v>23</v>
@@ -10376,7 +10390,7 @@
       </c>
       <c r="I163" s="18"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="18"/>
       <c r="B164" s="18" t="s">
         <v>23</v>
@@ -10399,7 +10413,7 @@
       </c>
       <c r="I164" s="18"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="18"/>
       <c r="B165" s="18" t="s">
         <v>23</v>
@@ -10422,7 +10436,7 @@
       </c>
       <c r="I165" s="18"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="18"/>
       <c r="B166" s="18" t="s">
         <v>23</v>
@@ -10445,7 +10459,7 @@
       </c>
       <c r="I166" s="18"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="18" t="b">
         <v>0</v>
       </c>
@@ -10464,7 +10478,7 @@
       <c r="H167" s="18"/>
       <c r="I167" s="18"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="18"/>
       <c r="B168" s="18" t="s">
         <v>23</v>
@@ -10489,7 +10503,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="18"/>
       <c r="B169" s="18" t="s">
         <v>23</v>
@@ -10512,7 +10526,7 @@
       </c>
       <c r="I169" s="18"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="18"/>
       <c r="B170" s="18" t="s">
         <v>23</v>
@@ -10535,7 +10549,7 @@
       </c>
       <c r="I170" s="18"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="18"/>
       <c r="B171" s="18" t="s">
         <v>23</v>
@@ -10558,7 +10572,7 @@
       </c>
       <c r="I171" s="18"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="18"/>
       <c r="B172" s="18" t="s">
         <v>23</v>
@@ -10581,7 +10595,7 @@
       </c>
       <c r="I172" s="18"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="18"/>
       <c r="B173" s="18" t="s">
         <v>23</v>
@@ -10604,7 +10618,7 @@
       </c>
       <c r="I173" s="18"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="18"/>
       <c r="B174" s="18" t="s">
         <v>23</v>
@@ -10627,7 +10641,7 @@
       </c>
       <c r="I174" s="18"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="18"/>
       <c r="B175" s="18" t="s">
         <v>23</v>
@@ -10650,7 +10664,7 @@
       </c>
       <c r="I175" s="18"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="18"/>
       <c r="B176" s="18" t="s">
         <v>23</v>
@@ -10673,7 +10687,7 @@
       </c>
       <c r="I176" s="18"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="18"/>
       <c r="B177" s="18" t="s">
         <v>23</v>
@@ -10696,7 +10710,7 @@
       </c>
       <c r="I177" s="18"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="18" t="b">
         <v>0</v>
       </c>
@@ -10715,7 +10729,7 @@
       <c r="H178" s="18"/>
       <c r="I178" s="18"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="18"/>
       <c r="B179" s="18" t="s">
         <v>23</v>
@@ -10738,7 +10752,7 @@
       </c>
       <c r="I179" s="18"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="18"/>
       <c r="B180" s="18" t="s">
         <v>23</v>
@@ -10761,7 +10775,7 @@
       </c>
       <c r="I180" s="18"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="18"/>
       <c r="B181" s="18" t="s">
         <v>23</v>
@@ -10784,7 +10798,7 @@
       </c>
       <c r="I181" s="18"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="18"/>
       <c r="B182" s="18" t="s">
         <v>23</v>
@@ -10807,7 +10821,7 @@
       </c>
       <c r="I182" s="18"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="18" t="b">
         <v>0</v>
       </c>
@@ -10826,7 +10840,7 @@
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="18"/>
       <c r="B184" s="18" t="s">
         <v>23</v>
@@ -10849,7 +10863,7 @@
       </c>
       <c r="I184" s="18"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="18"/>
       <c r="B185" s="18" t="s">
         <v>23</v>
@@ -10872,7 +10886,7 @@
       </c>
       <c r="I185" s="18"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="18"/>
       <c r="B186" s="18" t="s">
         <v>23</v>
@@ -10895,7 +10909,7 @@
       </c>
       <c r="I186" s="18"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="18"/>
       <c r="B187" s="18" t="s">
         <v>23</v>
@@ -10918,7 +10932,7 @@
       </c>
       <c r="I187" s="18"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="18" t="b">
         <v>0</v>
       </c>
@@ -10937,7 +10951,7 @@
       <c r="H188" s="18"/>
       <c r="I188" s="18"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="18"/>
       <c r="B189" s="18" t="s">
         <v>23</v>
@@ -10958,7 +10972,7 @@
       <c r="H189" s="18"/>
       <c r="I189" s="18"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="18"/>
       <c r="B190" s="18" t="s">
         <v>23</v>
@@ -10981,7 +10995,7 @@
       </c>
       <c r="I190" s="18"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="18" t="b">
         <v>0</v>
       </c>
@@ -11000,7 +11014,7 @@
       <c r="H191" s="18"/>
       <c r="I191" s="18"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="18"/>
       <c r="B192" s="18" t="s">
         <v>23</v>
@@ -11023,7 +11037,7 @@
       </c>
       <c r="I192" s="18"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="18"/>
       <c r="B193" s="18" t="s">
         <v>23</v>
@@ -11048,7 +11062,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="18"/>
       <c r="B194" s="18" t="s">
         <v>23</v>
@@ -11069,7 +11083,7 @@
       <c r="H194" s="18"/>
       <c r="I194" s="18"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="18"/>
       <c r="B195" s="18" t="s">
         <v>23</v>
@@ -11094,7 +11108,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="18"/>
       <c r="B196" s="18" t="s">
         <v>23</v>
@@ -11119,7 +11133,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="18" t="b">
         <v>0</v>
       </c>
@@ -11138,7 +11152,7 @@
       <c r="H197" s="18"/>
       <c r="I197" s="18"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="18"/>
       <c r="B198" s="18" t="s">
         <v>23</v>
@@ -11163,7 +11177,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="18"/>
       <c r="B199" s="18" t="s">
         <v>23</v>
@@ -11186,7 +11200,7 @@
       </c>
       <c r="I199" s="18"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="18"/>
       <c r="B200" s="18" t="s">
         <v>23</v>
@@ -11209,7 +11223,7 @@
       </c>
       <c r="I200" s="18"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="18"/>
       <c r="B201" s="18" t="s">
         <v>23</v>
@@ -11232,7 +11246,7 @@
       </c>
       <c r="I201" s="18"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="18"/>
       <c r="B202" s="18" t="s">
         <v>23</v>
@@ -11255,7 +11269,7 @@
       </c>
       <c r="I202" s="18"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="18"/>
       <c r="B203" s="18" t="s">
         <v>23</v>
@@ -11278,7 +11292,7 @@
       </c>
       <c r="I203" s="18"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="18"/>
       <c r="B204" s="18" t="s">
         <v>23</v>
@@ -11301,7 +11315,7 @@
       </c>
       <c r="I204" s="18"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="18"/>
       <c r="B205" s="18" t="s">
         <v>23</v>
@@ -11324,7 +11338,7 @@
       </c>
       <c r="I205" s="18"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="18"/>
       <c r="B206" s="18" t="s">
         <v>23</v>
@@ -11347,7 +11361,7 @@
       </c>
       <c r="I206" s="18"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="18" t="b">
         <v>0</v>
       </c>
@@ -11366,7 +11380,7 @@
       <c r="H207" s="18"/>
       <c r="I207" s="18"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="18"/>
       <c r="B208" s="18" t="s">
         <v>23</v>
@@ -11391,7 +11405,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="18"/>
       <c r="B209" s="18" t="s">
         <v>23</v>
@@ -11414,7 +11428,7 @@
       </c>
       <c r="I209" s="18"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="18"/>
       <c r="B210" s="18" t="s">
         <v>23</v>
@@ -11437,7 +11451,7 @@
       </c>
       <c r="I210" s="18"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="18"/>
       <c r="B211" s="18" t="s">
         <v>23</v>
@@ -11460,7 +11474,7 @@
       </c>
       <c r="I211" s="18"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="18"/>
       <c r="B212" s="18" t="s">
         <v>23</v>
@@ -11483,7 +11497,7 @@
       </c>
       <c r="I212" s="18"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="18"/>
       <c r="B213" s="18" t="s">
         <v>23</v>
@@ -11506,7 +11520,7 @@
       </c>
       <c r="I213" s="18"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="18"/>
       <c r="B214" s="18" t="s">
         <v>23</v>
@@ -11529,7 +11543,7 @@
       </c>
       <c r="I214" s="18"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="18"/>
       <c r="B215" s="18" t="s">
         <v>23</v>
@@ -11552,7 +11566,7 @@
       </c>
       <c r="I215" s="18"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="18"/>
       <c r="B216" s="18" t="s">
         <v>23</v>
@@ -11575,7 +11589,7 @@
       </c>
       <c r="I216" s="18"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="18" t="b">
         <v>0</v>
       </c>
@@ -11594,7 +11608,7 @@
       <c r="H217" s="18"/>
       <c r="I217" s="18"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="18"/>
       <c r="B218" s="18" t="s">
         <v>23</v>
@@ -11615,7 +11629,7 @@
       <c r="H218" s="18"/>
       <c r="I218" s="18"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="18"/>
       <c r="B219" s="18" t="s">
         <v>23</v>
@@ -11638,7 +11652,7 @@
       </c>
       <c r="I219" s="18"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="18"/>
       <c r="B220" s="18" t="s">
         <v>23</v>
@@ -11661,7 +11675,7 @@
       </c>
       <c r="I220" s="18"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="18"/>
       <c r="B221" s="18" t="s">
         <v>23</v>
@@ -11684,7 +11698,7 @@
       </c>
       <c r="I221" s="18"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="18"/>
       <c r="B222" s="18" t="s">
         <v>23</v>
@@ -11707,7 +11721,7 @@
       </c>
       <c r="I222" s="18"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="18"/>
       <c r="B223" s="18" t="s">
         <v>23</v>
@@ -11730,7 +11744,7 @@
       </c>
       <c r="I223" s="18"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="18"/>
       <c r="B224" s="18" t="s">
         <v>23</v>
@@ -11753,7 +11767,7 @@
       </c>
       <c r="I224" s="18"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="18"/>
       <c r="B225" s="18" t="s">
         <v>23</v>
@@ -11776,7 +11790,7 @@
       </c>
       <c r="I225" s="18"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="18"/>
       <c r="B226" s="18" t="s">
         <v>23</v>
@@ -11799,7 +11813,7 @@
       </c>
       <c r="I226" s="18"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="18"/>
       <c r="B227" s="18" t="s">
         <v>23</v>
@@ -11822,7 +11836,7 @@
       </c>
       <c r="I227" s="18"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="18"/>
       <c r="B228" s="18" t="s">
         <v>23</v>
@@ -11845,7 +11859,7 @@
       </c>
       <c r="I228" s="18"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="18"/>
       <c r="B229" s="18" t="s">
         <v>23</v>
@@ -11868,7 +11882,7 @@
       </c>
       <c r="I229" s="18"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="18"/>
       <c r="B230" s="18" t="s">
         <v>23</v>
@@ -11891,7 +11905,7 @@
       </c>
       <c r="I230" s="18"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="18"/>
       <c r="B231" s="18" t="s">
         <v>23</v>
@@ -11914,7 +11928,7 @@
       </c>
       <c r="I231" s="18"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="18"/>
       <c r="B232" s="18" t="s">
         <v>23</v>
@@ -11937,7 +11951,7 @@
       </c>
       <c r="I232" s="18"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="18"/>
       <c r="B233" s="18" t="s">
         <v>23</v>
@@ -11960,7 +11974,7 @@
       </c>
       <c r="I233" s="18"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="18" t="b">
         <v>0</v>
       </c>
@@ -11979,7 +11993,7 @@
       <c r="H234" s="18"/>
       <c r="I234" s="18"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="18"/>
       <c r="B235" s="18" t="s">
         <v>23</v>
@@ -12000,7 +12014,7 @@
       <c r="H235" s="18"/>
       <c r="I235" s="18"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="18"/>
       <c r="B236" s="18" t="s">
         <v>23</v>
@@ -12023,7 +12037,7 @@
       </c>
       <c r="I236" s="18"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="18"/>
       <c r="B237" s="18" t="s">
         <v>23</v>
@@ -12046,7 +12060,7 @@
       </c>
       <c r="I237" s="18"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="18"/>
       <c r="B238" s="18" t="s">
         <v>23</v>
@@ -12069,7 +12083,7 @@
       </c>
       <c r="I238" s="18"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="18"/>
       <c r="B239" s="18" t="s">
         <v>23</v>
@@ -12092,7 +12106,7 @@
       </c>
       <c r="I239" s="18"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="18"/>
       <c r="B240" s="18" t="s">
         <v>23</v>
@@ -12115,7 +12129,7 @@
       </c>
       <c r="I240" s="18"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="18"/>
       <c r="B241" s="18" t="s">
         <v>23</v>
@@ -12138,7 +12152,7 @@
       </c>
       <c r="I241" s="18"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="18"/>
       <c r="B242" s="18" t="s">
         <v>23</v>
@@ -12161,7 +12175,7 @@
       </c>
       <c r="I242" s="18"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="18"/>
       <c r="B243" s="18" t="s">
         <v>23</v>
@@ -12184,7 +12198,7 @@
       </c>
       <c r="I243" s="18"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="18"/>
       <c r="B244" s="18" t="s">
         <v>23</v>
@@ -12207,7 +12221,7 @@
       </c>
       <c r="I244" s="18"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="18"/>
       <c r="B245" s="18" t="s">
         <v>23</v>
@@ -12230,7 +12244,7 @@
       </c>
       <c r="I245" s="18"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="18"/>
       <c r="B246" s="18" t="s">
         <v>23</v>
@@ -12253,7 +12267,7 @@
       </c>
       <c r="I246" s="18"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="18"/>
       <c r="B247" s="18" t="s">
         <v>23</v>
@@ -12276,7 +12290,7 @@
       </c>
       <c r="I247" s="18"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="18"/>
       <c r="B248" s="18" t="s">
         <v>23</v>
@@ -12299,7 +12313,7 @@
       </c>
       <c r="I248" s="18"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="18"/>
       <c r="B249" s="18" t="s">
         <v>23</v>
@@ -12322,7 +12336,7 @@
       </c>
       <c r="I249" s="18"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="18"/>
       <c r="B250" s="18" t="s">
         <v>23</v>
@@ -12345,7 +12359,7 @@
       </c>
       <c r="I250" s="18"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="18" t="b">
         <v>0</v>
       </c>
@@ -12364,7 +12378,7 @@
       <c r="H251" s="18"/>
       <c r="I251" s="18"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="18"/>
       <c r="B252" s="18" t="s">
         <v>23</v>
@@ -12389,7 +12403,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="18"/>
       <c r="B253" s="18" t="s">
         <v>23</v>
@@ -12412,7 +12426,7 @@
       </c>
       <c r="I253" s="18"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="18"/>
       <c r="B254" s="18" t="s">
         <v>23</v>
@@ -12435,7 +12449,7 @@
       </c>
       <c r="I254" s="18"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="18"/>
       <c r="B255" s="18" t="s">
         <v>23</v>
@@ -12458,7 +12472,7 @@
       </c>
       <c r="I255" s="18"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="18"/>
       <c r="B256" s="18" t="s">
         <v>23</v>
@@ -12481,7 +12495,7 @@
       </c>
       <c r="I256" s="18"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="18" t="b">
         <v>0</v>
       </c>
@@ -12500,7 +12514,7 @@
       <c r="H257" s="18"/>
       <c r="I257" s="18"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="18"/>
       <c r="B258" s="18" t="s">
         <v>23</v>
@@ -12525,7 +12539,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="18"/>
       <c r="B259" s="18" t="s">
         <v>23</v>
@@ -12548,7 +12562,7 @@
       </c>
       <c r="I259" s="18"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="18" t="b">
         <v>0</v>
       </c>
@@ -12567,7 +12581,7 @@
       <c r="H260" s="18"/>
       <c r="I260" s="18"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="18" t="b">
         <v>0</v>
       </c>
@@ -12586,7 +12600,7 @@
       <c r="H261" s="18"/>
       <c r="I261" s="18"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="18" t="b">
         <v>0</v>
       </c>
@@ -12605,7 +12619,7 @@
       <c r="H262" s="18"/>
       <c r="I262" s="18"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="18"/>
       <c r="B263" s="18" t="s">
         <v>23</v>
@@ -12626,7 +12640,7 @@
       <c r="H263" s="18"/>
       <c r="I263" s="18"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="18"/>
       <c r="B264" s="18" t="s">
         <v>23</v>
@@ -12649,7 +12663,7 @@
       </c>
       <c r="I264" s="18"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="18"/>
       <c r="B265" s="18" t="s">
         <v>23</v>
@@ -12672,7 +12686,7 @@
       </c>
       <c r="I265" s="18"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="18"/>
       <c r="B266" s="18" t="s">
         <v>23</v>
@@ -12695,7 +12709,7 @@
       </c>
       <c r="I266" s="18"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="18"/>
       <c r="B267" s="18" t="s">
         <v>23</v>
@@ -12718,7 +12732,7 @@
       </c>
       <c r="I267" s="18"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="18"/>
       <c r="B268" s="18" t="s">
         <v>23</v>
@@ -12741,7 +12755,7 @@
       </c>
       <c r="I268" s="18"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="18"/>
       <c r="B269" s="18" t="s">
         <v>23</v>
@@ -12764,7 +12778,7 @@
       </c>
       <c r="I269" s="18"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="18"/>
       <c r="B270" s="18" t="s">
         <v>23</v>
@@ -12787,7 +12801,7 @@
       </c>
       <c r="I270" s="18"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="18"/>
       <c r="B271" s="18" t="s">
         <v>23</v>
@@ -12810,7 +12824,7 @@
       </c>
       <c r="I271" s="18"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="18"/>
       <c r="B272" s="18" t="s">
         <v>23</v>
@@ -12833,7 +12847,7 @@
       </c>
       <c r="I272" s="18"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="18"/>
       <c r="B273" s="18" t="s">
         <v>23</v>
@@ -12856,7 +12870,7 @@
       </c>
       <c r="I273" s="18"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="18" t="b">
         <v>0</v>
       </c>
@@ -12875,7 +12889,7 @@
       <c r="H274" s="18"/>
       <c r="I274" s="18"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="18"/>
       <c r="B275" s="18" t="s">
         <v>23</v>
@@ -12898,7 +12912,7 @@
       </c>
       <c r="I275" s="18"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="18" t="b">
         <v>0</v>
       </c>
@@ -12917,7 +12931,7 @@
       <c r="H276" s="18"/>
       <c r="I276" s="18"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="18"/>
       <c r="B277" s="18" t="s">
         <v>23</v>
@@ -12942,7 +12956,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="18"/>
       <c r="B278" s="18" t="s">
         <v>23</v>
@@ -12965,7 +12979,7 @@
       </c>
       <c r="I278" s="18"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="18"/>
       <c r="B279" s="18" t="s">
         <v>23</v>
@@ -12988,7 +13002,7 @@
       </c>
       <c r="I279" s="18"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="18"/>
       <c r="B280" s="18" t="s">
         <v>23</v>
@@ -13011,7 +13025,7 @@
       </c>
       <c r="I280" s="18"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="18"/>
       <c r="B281" s="18" t="s">
         <v>23</v>
@@ -13034,7 +13048,7 @@
       </c>
       <c r="I281" s="18"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="18"/>
       <c r="B282" s="18" t="s">
         <v>23</v>
@@ -13057,7 +13071,7 @@
       </c>
       <c r="I282" s="18"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="18"/>
       <c r="B283" s="18" t="s">
         <v>23</v>
@@ -13080,7 +13094,7 @@
       </c>
       <c r="I283" s="18"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="18"/>
       <c r="B284" s="18" t="s">
         <v>23</v>
@@ -13103,7 +13117,7 @@
       </c>
       <c r="I284" s="18"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="18"/>
       <c r="B285" s="18" t="s">
         <v>23</v>
@@ -13126,7 +13140,7 @@
       </c>
       <c r="I285" s="18"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="18"/>
       <c r="B286" s="18" t="s">
         <v>23</v>
@@ -13149,7 +13163,7 @@
       </c>
       <c r="I286" s="18"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="18"/>
       <c r="B287" s="18" t="s">
         <v>23</v>
@@ -13172,7 +13186,7 @@
       </c>
       <c r="I287" s="18"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="18" t="b">
         <v>0</v>
       </c>
@@ -13191,7 +13205,7 @@
       <c r="H288" s="18"/>
       <c r="I288" s="18"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="18"/>
       <c r="B289" s="18" t="s">
         <v>23</v>
@@ -13214,7 +13228,7 @@
       </c>
       <c r="I289" s="18"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="18" t="b">
         <v>0</v>
       </c>
@@ -13233,7 +13247,7 @@
       <c r="H290" s="18"/>
       <c r="I290" s="18"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="18"/>
       <c r="B291" s="18" t="s">
         <v>23</v>
@@ -13254,7 +13268,7 @@
       <c r="H291" s="18"/>
       <c r="I291" s="18"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="18" t="b">
         <v>0</v>
       </c>
@@ -13273,7 +13287,7 @@
       <c r="H292" s="18"/>
       <c r="I292" s="18"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="18"/>
       <c r="B293" s="18" t="s">
         <v>23</v>
@@ -13294,7 +13308,7 @@
       <c r="H293" s="18"/>
       <c r="I293" s="18"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="18" t="b">
         <v>0</v>
       </c>
@@ -13313,7 +13327,7 @@
       <c r="H294" s="18"/>
       <c r="I294" s="18"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="18"/>
       <c r="B295" s="18" t="s">
         <v>23</v>
@@ -13334,7 +13348,7 @@
       <c r="H295" s="18"/>
       <c r="I295" s="18"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="18" t="b">
         <v>0</v>
       </c>
@@ -13353,7 +13367,7 @@
       <c r="H296" s="18"/>
       <c r="I296" s="18"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="18"/>
       <c r="B297" s="18" t="s">
         <v>23</v>
@@ -13376,7 +13390,7 @@
       </c>
       <c r="I297" s="18"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="18" t="b">
         <v>0</v>
       </c>
@@ -13395,7 +13409,7 @@
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="18"/>
       <c r="B299" s="18" t="s">
         <v>23</v>
@@ -13420,7 +13434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="18"/>
       <c r="B300" s="18" t="s">
         <v>23</v>
@@ -13443,7 +13457,7 @@
       </c>
       <c r="I300" s="18"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="18"/>
       <c r="B301" s="18" t="s">
         <v>23</v>
@@ -13466,7 +13480,7 @@
       </c>
       <c r="I301" s="18"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="18"/>
       <c r="B302" s="18" t="s">
         <v>23</v>
@@ -13489,7 +13503,7 @@
       </c>
       <c r="I302" s="18"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="18"/>
       <c r="B303" s="18" t="s">
         <v>23</v>
@@ -13512,7 +13526,7 @@
       </c>
       <c r="I303" s="18"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="18"/>
       <c r="B304" s="18" t="s">
         <v>23</v>
@@ -13535,7 +13549,7 @@
       </c>
       <c r="I304" s="18"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="18"/>
       <c r="B305" s="18" t="s">
         <v>23</v>
@@ -13558,7 +13572,7 @@
       </c>
       <c r="I305" s="18"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="18"/>
       <c r="B306" s="18" t="s">
         <v>23</v>
@@ -13581,7 +13595,7 @@
       </c>
       <c r="I306" s="18"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="18"/>
       <c r="B307" s="18" t="s">
         <v>23</v>
@@ -13604,7 +13618,7 @@
       </c>
       <c r="I307" s="18"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="18" t="b">
         <v>0</v>
       </c>
@@ -13623,7 +13637,7 @@
       <c r="H308" s="18"/>
       <c r="I308" s="18"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="18"/>
       <c r="B309" s="18" t="s">
         <v>23</v>
@@ -13646,7 +13660,7 @@
       </c>
       <c r="I309" s="18"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="18"/>
       <c r="B310" s="18" t="s">
         <v>23</v>
@@ -13669,7 +13683,7 @@
       </c>
       <c r="I310" s="18"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="18"/>
       <c r="B311" s="18" t="s">
         <v>23</v>
@@ -13692,7 +13706,7 @@
       </c>
       <c r="I311" s="18"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="18"/>
       <c r="B312" s="18" t="s">
         <v>23</v>
@@ -13715,7 +13729,7 @@
       </c>
       <c r="I312" s="18"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="18" t="b">
         <v>0</v>
       </c>
@@ -13734,7 +13748,7 @@
       <c r="H313" s="18"/>
       <c r="I313" s="18"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="18"/>
       <c r="B314" s="18" t="s">
         <v>23</v>
@@ -13757,7 +13771,7 @@
       </c>
       <c r="I314" s="18"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="18"/>
       <c r="B315" s="18" t="s">
         <v>23</v>
@@ -13780,7 +13794,7 @@
       </c>
       <c r="I315" s="18"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="18"/>
       <c r="B316" s="18" t="s">
         <v>23</v>
@@ -13805,7 +13819,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="18" t="b">
         <v>0</v>
       </c>
@@ -13824,7 +13838,7 @@
       <c r="H317" s="18"/>
       <c r="I317" s="18"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="18"/>
       <c r="B318" s="18" t="s">
         <v>23</v>
@@ -13849,7 +13863,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="18"/>
       <c r="B319" s="18" t="s">
         <v>23</v>
@@ -13872,7 +13886,7 @@
       </c>
       <c r="I319" s="18"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="18" t="b">
         <v>0</v>
       </c>
@@ -13891,7 +13905,7 @@
       <c r="H320" s="18"/>
       <c r="I320" s="18"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="18"/>
       <c r="B321" s="18" t="s">
         <v>23</v>
@@ -13912,7 +13926,7 @@
       <c r="H321" s="18"/>
       <c r="I321" s="18"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="18"/>
       <c r="B322" s="18" t="s">
         <v>23</v>
@@ -13933,7 +13947,7 @@
       <c r="H322" s="18"/>
       <c r="I322" s="18"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="18"/>
       <c r="B323" s="18" t="s">
         <v>23</v>
@@ -13956,7 +13970,7 @@
       </c>
       <c r="I323" s="18"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="18" t="b">
         <v>0</v>
       </c>
@@ -13975,7 +13989,7 @@
       <c r="H324" s="18"/>
       <c r="I324" s="18"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="18" t="b">
         <v>0</v>
       </c>
@@ -13994,7 +14008,7 @@
       <c r="H325" s="18"/>
       <c r="I325" s="18"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="18"/>
       <c r="B326" s="18" t="s">
         <v>23</v>
@@ -14019,7 +14033,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="18"/>
       <c r="B327" s="18" t="s">
         <v>23</v>
@@ -14044,7 +14058,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -14058,7 +14072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>23</v>
       </c>
@@ -14081,7 +14095,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>23</v>
       </c>
@@ -14101,7 +14115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>23</v>
       </c>
@@ -14121,7 +14135,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>23</v>
       </c>
@@ -14141,7 +14155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>23</v>
       </c>
@@ -14158,7 +14172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>23</v>
       </c>
@@ -14181,7 +14195,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>23</v>
       </c>
@@ -14204,7 +14218,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -14218,7 +14232,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>23</v>
       </c>
@@ -14241,7 +14255,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>23</v>
       </c>
@@ -14264,7 +14278,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>23</v>
       </c>
@@ -14284,7 +14298,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>23</v>
       </c>
@@ -14304,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>23</v>
       </c>
@@ -14321,7 +14335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -14347,7 +14361,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>23</v>
@@ -14376,7 +14390,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="18"/>
       <c r="B344" t="s">
         <v>23</v>
@@ -14415,7 +14429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -14429,7 +14443,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>23</v>
       </c>
@@ -14449,7 +14463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -14463,7 +14477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>23</v>
       </c>
@@ -14483,7 +14497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>23</v>
       </c>
@@ -14503,7 +14517,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>23</v>
       </c>
@@ -14523,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>23</v>
       </c>
@@ -14543,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>23</v>
       </c>
@@ -14563,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>23</v>
       </c>
@@ -14583,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>23</v>
       </c>
@@ -14603,7 +14617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>23</v>
       </c>
@@ -14623,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>23</v>
       </c>
@@ -14643,7 +14657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -14657,7 +14671,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>23</v>
       </c>
@@ -14677,7 +14691,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>23</v>
       </c>
@@ -14697,7 +14711,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -14713,7 +14727,7 @@
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>23</v>
       </c>
@@ -14739,7 +14753,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="18"/>
       <c r="B362" t="s">
         <v>24</v>
@@ -14780,7 +14794,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -14794,7 +14808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>23</v>
       </c>
@@ -14814,7 +14828,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -14828,7 +14842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>23</v>
       </c>
@@ -14867,13 +14881,13 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>453</v>
       </c>
@@ -14884,7 +14898,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -14895,7 +14909,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>444</v>
       </c>
@@ -14906,7 +14920,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>451</v>
       </c>
@@ -14917,7 +14931,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>445</v>
       </c>
@@ -14928,17 +14942,17 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>467</v>
       </c>

--- a/spec/files/discrete_dynamic_columns.xlsx
+++ b/spec/files/discrete_dynamic_columns.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="1680" yWindow="1680" windowWidth="23920" windowHeight="14380" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="615">
   <si>
     <t># Variable</t>
   </si>
@@ -1867,6 +1867,12 @@
   </si>
   <si>
     <t>0.1.12</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1932,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1981,6 +1987,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3462,7 +3474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3531,6 +3543,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1469">
@@ -5724,7 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
@@ -6064,9 +6083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6092,36 +6111,42 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" s="9" customFormat="1" ht="15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="33" t="s">
         <v>477</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="33" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="G2" s="33" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="30">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
